--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18975" windowHeight="5940"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -892,49 +892,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1472,13 +1430,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="2" customWidth="1"/>
@@ -1489,7 +1447,7 @@
     <col min="7" max="7" width="44.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1511,508 +1469,466 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>42221</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>14536449112</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="5">
         <v>42221</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="6">
         <v>13845744811</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A4" s="16" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="5">
         <v>42721</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="6">
         <v>13801853311</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="5">
         <v>40842</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="6">
         <v>13801853312</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="5">
         <v>42728</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="6">
         <v>13801853313</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A7" s="16" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="5">
         <v>42813</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="6">
         <v>13801853314</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A8" s="16" t="s">
+    </row>
+    <row r="8" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="5">
         <v>41324</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="6">
         <v>13801853315</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A9" s="16" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="5">
         <v>41220</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="6">
         <v>13801853316</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A10" s="16" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="5">
         <v>41927</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="6">
         <v>13801853317</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A11" s="16" t="s">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="5">
         <v>42697</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="6">
         <v>13801853318</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A12" s="16" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="5">
         <v>41202</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="6">
         <v>13801853319</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A13" s="16" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="5">
         <v>41992</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="6">
         <v>13801853320</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="5">
         <v>42130</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="6">
         <v>13801853321</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="5">
         <v>41916</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="6">
         <v>13801853322</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A16" s="16" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="5">
         <v>41917</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="6">
         <v>13801853323</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A17" s="16" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="5">
         <v>41428</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="6">
         <v>13801853324</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A18" s="16" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="5">
         <v>41429</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="6">
         <v>13801853325</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A19" s="16" t="s">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="5">
         <v>40819</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="6">
         <v>13801853326</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="7">
         <v>42242</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="6">
         <v>13801853327</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A21" s="16" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="19" customHeight="1" spans="1:7">
+      <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="5">
         <v>41400</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="6">
         <v>13801853328</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
